--- a/static/AANParameters.xlsx
+++ b/static/AANParameters.xlsx
@@ -473,20 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>930S016768609</t>
+          <t>454-P023454131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACK</t>
+          <t>CMT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test Comment From ACK</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Test 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
